--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996579435599721</v>
+        <v>0.9996601698356028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988385168836154</v>
+        <v>0.9990302610929659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992166063338874</v>
+        <v>0.9997905182857302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995601698993423</v>
+        <v>0.9995759575915006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9994678616582476</v>
+        <v>0.9997029107336695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003192946722236671</v>
+        <v>0.000317216541644587</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00108419350592857</v>
+        <v>0.0009052087030979156</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002254598456346665</v>
+        <v>0.0001490305741120392</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003281274587530422</v>
+        <v>0.000369073690308669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002767936521938544</v>
+        <v>0.0002590521322103541</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002122958657652288</v>
+        <v>0.002027540816963698</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01786881843389951</v>
+        <v>0.01781057387184891</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001641870912134</v>
+        <v>1.001631184789107</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01862953102818407</v>
+        <v>0.0185688068745441</v>
       </c>
       <c r="P2" t="n">
-        <v>74.09879228836796</v>
+        <v>74.11185184124142</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.4461912095458</v>
+        <v>109.4592507624192</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996519244269491</v>
+        <v>0.9996522805471606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988341174672341</v>
+        <v>0.9990263991135103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9992103083984902</v>
+        <v>0.999783175373317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995547006196891</v>
+        <v>0.9995632691997922</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994621971788772</v>
+        <v>0.9996935826745156</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003249132686912511</v>
+        <v>0.0003245808461056361</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001088300168008524</v>
+        <v>0.0009088136913984503</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002272723845967479</v>
+        <v>0.0001542545071719127</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003322077179966033</v>
+        <v>0.0003801172827844627</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002797400512966756</v>
+        <v>0.0002671858949781878</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00214132787226096</v>
+        <v>0.002053050776871629</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01802535072311357</v>
+        <v>0.01801612738924867</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001670762750644</v>
+        <v>1.001669053373629</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01879272722101648</v>
+        <v>0.01878311123073401</v>
       </c>
       <c r="P3" t="n">
-        <v>74.06390455362974</v>
+        <v>74.06595182461845</v>
       </c>
       <c r="Q3" t="n">
-        <v>109.4113034748076</v>
+        <v>109.4133507457963</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999645760879409</v>
+        <v>0.9996441932164569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988295894209658</v>
+        <v>0.9990223572311566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992036859283417</v>
+        <v>0.9997756407948756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995490701977319</v>
+        <v>0.9995501202569463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9994563273581151</v>
+        <v>0.9996839465729526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003306666697714207</v>
+        <v>0.0003321300143247734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001092526900441669</v>
+        <v>0.0009125866111574718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002291783243074952</v>
+        <v>0.0001596147962774019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003364081946028289</v>
+        <v>0.0003915617250442417</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000282793259455162</v>
+        <v>0.0002755882606608218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002159979981791616</v>
+        <v>0.00207885989437469</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01818424234801716</v>
+        <v>0.01822443454060436</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001700347778837</v>
+        <v>1.001707872561007</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01895838319134322</v>
+        <v>0.01900028644877817</v>
       </c>
       <c r="P4" t="n">
-        <v>74.02879945991627</v>
+        <v>74.01996811258954</v>
       </c>
       <c r="Q4" t="n">
-        <v>109.3761983810941</v>
+        <v>109.3673670337674</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996394772739575</v>
+        <v>0.9996358874904033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988249556905274</v>
+        <v>0.9990180923510625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9991970135631263</v>
+        <v>0.9997678964206179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995433619352185</v>
+        <v>0.9995364266678011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994503879124187</v>
+        <v>0.9996739530625233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003365321396419419</v>
+        <v>0.000339883045016544</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001096852284408623</v>
+        <v>0.0009165676895187331</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002310986237642825</v>
+        <v>0.0001651243394171327</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003406667427776516</v>
+        <v>0.0004034802109742437</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000285882683270967</v>
+        <v>0.0002843022751956882</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002178808269315457</v>
+        <v>0.002105012864617554</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01834481233596959</v>
+        <v>0.01843591725454809</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001730509085004</v>
+        <v>1.001747740046064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01912578897610848</v>
+        <v>0.01922077241968405</v>
       </c>
       <c r="P5" t="n">
-        <v>73.99363380374896</v>
+        <v>73.97381796955204</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.3410327249268</v>
+        <v>109.3212168907299</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996330762151918</v>
+        <v>0.9996273598169111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988202217315916</v>
+        <v>0.9990135772739273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9991902523677249</v>
+        <v>0.9997599272380523</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995375632129448</v>
+        <v>0.9995221239859325</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9994443590208922</v>
+        <v>0.9996635638548185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003425072470257538</v>
+        <v>0.0003478432538999563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001101271227278479</v>
+        <v>0.0009207823158354867</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002330444884520793</v>
+        <v>0.0001707938168562594</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003449927768550274</v>
+        <v>0.0004159288327929545</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002890186326535534</v>
+        <v>0.0002933613248246069</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002197804377683352</v>
+        <v>0.002131481207649819</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01850695131635013</v>
+        <v>0.01865055639652491</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001761234167079</v>
+        <v>1.001788672878827</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01929483054855778</v>
+        <v>0.0194445491942991</v>
       </c>
       <c r="P6" t="n">
-        <v>73.95843548257314</v>
+        <v>73.92751719897399</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.3058344037509</v>
+        <v>109.2749161201518</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996265700821444</v>
+        <v>0.9996186199003639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988154118708253</v>
+        <v>0.9990088619463485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9991835996206997</v>
+        <v>0.9997517588280519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995317525426862</v>
+        <v>0.9995073022995187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9994383515631733</v>
+        <v>0.9996528343469279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003485804366392574</v>
+        <v>0.0003560015823586872</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001105761021175271</v>
+        <v>0.0009251838671512492</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002349591418150313</v>
+        <v>0.0001766050297164691</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003493277245149286</v>
+        <v>0.0004288291804745514</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002921434331649799</v>
+        <v>0.0003027171050955102</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002216939518755922</v>
+        <v>0.002158256879588183</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01867030895939479</v>
+        <v>0.01886800419648796</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001792463605707</v>
+        <v>1.001830624478253</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01946514266466379</v>
+        <v>0.01967125419728557</v>
       </c>
       <c r="P7" t="n">
-        <v>73.92328309249743</v>
+        <v>73.8811507645887</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.2706820136752</v>
+        <v>109.2285496857665</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996199750574213</v>
+        <v>0.9996096465103315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988105485264648</v>
+        <v>0.9990039100821696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9991772367439289</v>
+        <v>0.9997433660787264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995260255374759</v>
+        <v>0.999491888587521</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9994324842959513</v>
+        <v>0.9996417178510149</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003547366027302178</v>
+        <v>0.0003643778480676987</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001110300739659647</v>
+        <v>0.0009298062150005625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002367903708338447</v>
+        <v>0.0001825758432298334</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000353600255346992</v>
+        <v>0.0004422448093227942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002951953130904183</v>
+        <v>0.0003124103262763138</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00223611960077219</v>
+        <v>0.002185373735475796</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0188344525466024</v>
+        <v>0.01908868376991192</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001824119724378</v>
+        <v>1.001873696750409</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0196362741842029</v>
+        <v>0.01990132855701988</v>
       </c>
       <c r="P8" t="n">
-        <v>73.88827001604142</v>
+        <v>73.83463836916154</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.2356689372192</v>
+        <v>109.1820372903394</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996132269530829</v>
+        <v>0.9996004353447522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988055258372563</v>
+        <v>0.9989986892310652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9991704870796072</v>
+        <v>0.9997347581236274</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995200633605904</v>
+        <v>0.9994758142641771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9994263413767646</v>
+        <v>0.999630183862992</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003610356619225258</v>
+        <v>0.0003729760668124951</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001114989199565177</v>
+        <v>0.0009346796503376744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002387329168893815</v>
+        <v>0.0001886997595573354</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003580482318432575</v>
+        <v>0.000456235414311421</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002983905743663195</v>
+        <v>0.0003224675869343783</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002255587673557644</v>
+        <v>0.002212816905422014</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01900093844846948</v>
+        <v>0.01931258829915077</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001856510625202</v>
+        <v>1.00191791034519</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01980984773558579</v>
+        <v>0.0201347651656147</v>
       </c>
       <c r="P9" t="n">
-        <v>73.85306763604294</v>
+        <v>73.78799260884125</v>
       </c>
       <c r="Q9" t="n">
-        <v>109.2004665572208</v>
+        <v>109.1353915300191</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996063775068224</v>
+        <v>0.9995909739343489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988004562864069</v>
+        <v>0.9989932193160732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9991639900342134</v>
+        <v>0.9997258950842584</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995141576317317</v>
+        <v>0.9994590688449341</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9994203088245087</v>
+        <v>0.9996182108820503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000367429319350782</v>
+        <v>0.0003818078781159902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001119721402755561</v>
+        <v>0.0009397855758811366</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002406027594920782</v>
+        <v>0.00019500514926715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000362454096288648</v>
+        <v>0.0004708101208783212</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003015284278903631</v>
+        <v>0.0003329076350727356</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002275135378325076</v>
+        <v>0.002240623421220592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01916844592946392</v>
+        <v>0.01953990476220368</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001889387967253</v>
+        <v>1.001963325115125</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01998448635683445</v>
+        <v>0.02037175896110973</v>
       </c>
       <c r="P10" t="n">
-        <v>73.81795917221207</v>
+        <v>73.74118602548401</v>
       </c>
       <c r="Q10" t="n">
-        <v>109.1653580933899</v>
+        <v>109.0885849466618</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995993582263414</v>
+        <v>0.9995812852270004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987952130778481</v>
+        <v>0.9989875131555019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991569262876983</v>
+        <v>0.9997168169568592</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995080072654371</v>
+        <v>0.9994417740226753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994139440594012</v>
+        <v>0.9996058759593223</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003739815095689743</v>
+        <v>0.000390851861140801</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001124615707794897</v>
+        <v>0.000945112026302913</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002426356980615143</v>
+        <v>0.0002014635580255184</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003670424681613852</v>
+        <v>0.0004858630112174079</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003048390831114497</v>
+        <v>0.0003436632846214631</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002295011240619945</v>
+        <v>0.002268732290190652</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0193386015411915</v>
+        <v>0.01976997372635586</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001923080513561</v>
+        <v>1.002009830910398</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02016188584522394</v>
+        <v>0.02061162243737428</v>
       </c>
       <c r="P11" t="n">
-        <v>73.78260840285414</v>
+        <v>73.6943638830632</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.130007324032</v>
+        <v>109.041762804241</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9995921793088459</v>
+        <v>0.9995713406752643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9987898187122184</v>
+        <v>0.9989815369014888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991495826140933</v>
+        <v>0.9997075300767032</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9995016809497922</v>
+        <v>0.9994237806221</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9994073756749913</v>
+        <v>0.9995931072282398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003806827139328796</v>
+        <v>0.000400134663671052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001129651111325013</v>
+        <v>0.0009506905970969771</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002447491993431985</v>
+        <v>0.0002080704787592918</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003717621039314677</v>
+        <v>0.0005015239229998558</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003082556516373331</v>
+        <v>0.0003547972008795738</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00231514803384793</v>
+        <v>0.002297190119809302</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01951109207432735</v>
+        <v>0.02000336630847548</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00195753931754</v>
+        <v>1.002057564758731</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02034171965746002</v>
+        <v>0.02085495102490398</v>
       </c>
       <c r="P12" t="n">
-        <v>73.74708860322876</v>
+        <v>73.64741881667129</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.0944875244066</v>
+        <v>108.9948177378491</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995848397647145</v>
+        <v>0.9995611277784151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9987842731168396</v>
+        <v>0.9989752768362238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991419769258155</v>
+        <v>0.9996980047777745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9994951232538812</v>
+        <v>0.999405045966662</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999400568875709</v>
+        <v>0.9995798712875932</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003875338562109064</v>
+        <v>0.0004096679545853954</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001134827681187605</v>
+        <v>0.0009565340932367282</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002469381081628648</v>
+        <v>0.0002148470166202564</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003766543568521416</v>
+        <v>0.0005178300006010325</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003117962325075032</v>
+        <v>0.0003663385086106444</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002335563541063906</v>
+        <v>0.002326012824322186</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0196858796148637</v>
+        <v>0.0202402557934774</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001992769129371</v>
+        <v>1.002106586663607</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02052394826545709</v>
+        <v>0.02110192538571126</v>
       </c>
       <c r="P13" t="n">
-        <v>73.71141468424126</v>
+        <v>73.60032718650029</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.0588136054191</v>
+        <v>108.9477261076781</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995774788183601</v>
+        <v>0.9995506633638912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.998778774030544</v>
+        <v>0.9989687408910444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9991354388775309</v>
+        <v>0.999688283824951</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994889690806346</v>
+        <v>0.999385646843845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9993943468139125</v>
+        <v>0.9995662239063968</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003944049765244571</v>
+        <v>0.0004194360262087339</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00113996083686248</v>
+        <v>0.0009626351111668965</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002488197513529713</v>
+        <v>0.0002217627475958874</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003812455688340954</v>
+        <v>0.0005347144105168376</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003150326600935334</v>
+        <v>0.0003782385790563625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002355774772180437</v>
+        <v>0.002355152079672362</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0198596318325506</v>
+        <v>0.02048013735815104</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002028101671872</v>
+        <v>1.002156815853322</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02070509747476759</v>
+        <v>0.02135201920521636</v>
       </c>
       <c r="P14" t="n">
-        <v>73.67626463470556</v>
+        <v>73.55319908756941</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0236635558834</v>
+        <v>108.9005980087472</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995699592330395</v>
+        <v>0.9995398901711358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987731239085869</v>
+        <v>0.9989618312541518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9991286171400159</v>
+        <v>0.9996782978865967</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999482668508356</v>
+        <v>0.9993652624521681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9993879412833553</v>
+        <v>0.9995519766944586</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004014241793495984</v>
+        <v>0.0004294923287574338</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001145234977697893</v>
+        <v>0.0009690849539080414</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002507830399952259</v>
+        <v>0.0002288669959604068</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003859459992215083</v>
+        <v>0.0005524563686562015</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003183645196083671</v>
+        <v>0.0003906616823083041</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002376241617210431</v>
+        <v>0.002384725614592129</v>
       </c>
       <c r="M15" t="n">
-        <v>0.020035572848052</v>
+        <v>0.02072419669751843</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00206419568141</v>
+        <v>1.002208527178548</v>
       </c>
       <c r="O15" t="n">
-        <v>0.020888528663547</v>
+        <v>0.0216064686559331</v>
       </c>
       <c r="P15" t="n">
-        <v>73.6409837717473</v>
+        <v>73.50581335513382</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.9883826929251</v>
+        <v>108.8532122763116</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995622563126153</v>
+        <v>0.9995288470854344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987673058417602</v>
+        <v>0.9989546241039761</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9991214022990003</v>
+        <v>0.9996681023032048</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994761291356087</v>
+        <v>0.9993441257031479</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9993812557512324</v>
+        <v>0.9995372684699184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004086145174465146</v>
+        <v>0.0004398005645241957</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001150665887696905</v>
+        <v>0.0009758125122398816</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002528594633976896</v>
+        <v>0.0002361203910913293</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003908245824703836</v>
+        <v>0.0005708531558775991</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003218420229340365</v>
+        <v>0.0004034867734844642</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002397021067100266</v>
+        <v>0.002414635595375172</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02021421572672347</v>
+        <v>0.02097142256796605</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002101169699447</v>
+        <v>1.002261533989915</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02107477673940525</v>
+        <v>0.02186421944351378</v>
       </c>
       <c r="P16" t="n">
-        <v>73.60547669296953</v>
+        <v>73.45837839250291</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.9528756141473</v>
+        <v>108.8057773136807</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995544235527629</v>
+        <v>0.9995175267244498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998761371977374</v>
+        <v>0.9989471275011208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9991142890403335</v>
+        <v>0.9996577284137339</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9994695580592258</v>
+        <v>0.9993222328779696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9993745755861337</v>
+        <v>0.9995221101612717</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004159260549502404</v>
+        <v>0.0004503676245969731</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001156204889634925</v>
+        <v>0.0009828102619423454</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002549066515105679</v>
+        <v>0.0002435006376632304</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003957268176552806</v>
+        <v>0.0005899080089250723</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003253167345829242</v>
+        <v>0.0004167043232941513</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002417940529669654</v>
+        <v>0.002444870175636312</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02039426524663834</v>
+        <v>0.02122186666146438</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002138766946738</v>
+        <v>1.002315871722641</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02126249134013678</v>
+        <v>0.02212532546056307</v>
       </c>
       <c r="P17" t="n">
-        <v>73.57000613205264</v>
+        <v>73.41089273033566</v>
       </c>
       <c r="Q17" t="n">
-        <v>108.9174050532305</v>
+        <v>108.7582916515135</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9995464299412812</v>
+        <v>0.9995059038941682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987553059391011</v>
+        <v>0.9989392612528248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9991070322989443</v>
+        <v>0.9996471199699016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9994628343729648</v>
+        <v>0.9992993928094759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9993677462861631</v>
+        <v>0.9995063834139915</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004233877403894935</v>
+        <v>0.0004612170264815536</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00116186727009429</v>
+        <v>0.0009901530594382719</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002569951337950158</v>
+        <v>0.000251047752122689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004007429047374529</v>
+        <v>0.000609787313911825</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003288690192662343</v>
+        <v>0.000430417533017257</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002439089130940795</v>
+        <v>0.00247550600146266</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0205763879334905</v>
+        <v>0.02147596392438657</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00217713628185</v>
+        <v>1.002371661307993</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02145236736681418</v>
+        <v>0.02239024017002171</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53444430966542</v>
+        <v>73.36328370493548</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.8818432308432</v>
+        <v>108.7106826261133</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9995382848878424</v>
+        <v>0.9994939784283069</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987491150682806</v>
+        <v>0.9989310868289309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9990996480177775</v>
+        <v>0.9996362533531421</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9994560615718425</v>
+        <v>0.9992757652438383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9993608464809726</v>
+        <v>0.9994901583198065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004309907902480639</v>
+        <v>0.0004723489253956699</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001167646176257527</v>
+        <v>0.0009977835253274503</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002591203218888255</v>
+        <v>0.0002587785373130216</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0004057956330922589</v>
+        <v>0.0006303520326004528</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003324579774905422</v>
+        <v>0.0004445652849567371</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002460445518099128</v>
+        <v>0.002506514567645896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02076031768177125</v>
+        <v>0.02173358979542197</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002216232538357</v>
+        <v>1.002428903544127</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0216441273852663</v>
+        <v>0.02265883370774615</v>
       </c>
       <c r="P19" t="n">
-        <v>73.49884767284559</v>
+        <v>73.31558519353766</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.8462465940234</v>
+        <v>108.6629841147155</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9995299791623011</v>
+        <v>0.9994817374941073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.99874278769909</v>
+        <v>0.9989225414903712</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9990921634972204</v>
+        <v>0.9996251964935358</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9994491814265513</v>
+        <v>0.9992511590600143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9993538419653535</v>
+        <v>0.9994733672048479</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004387438204615824</v>
+        <v>0.0004837753001560241</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001173552497657535</v>
+        <v>0.001005760223776004</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002612743587702102</v>
+        <v>0.000266644666062075</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000410928443663671</v>
+        <v>0.0006517685109676229</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003361014012169405</v>
+        <v>0.000459206588514849</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002482013775973999</v>
+        <v>0.002537890963759834</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02094621255648816</v>
+        <v>0.02199489259250938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002256100020955</v>
+        <v>1.002487660028285</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02183793618965536</v>
+        <v>0.02293126070587694</v>
       </c>
       <c r="P20" t="n">
-        <v>73.46318973540286</v>
+        <v>73.2677800298475</v>
       </c>
       <c r="Q20" t="n">
-        <v>108.8105886565807</v>
+        <v>108.6151789510253</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9995215263034042</v>
+        <v>0.9994691932863595</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9987363375826152</v>
+        <v>0.9989136469230236</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990847158794038</v>
+        <v>0.999613941112394</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9994423023369082</v>
+        <v>0.9992256468257563</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993468484158385</v>
+        <v>0.9994560429092858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004466341932042257</v>
+        <v>0.0004954847674615365</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001179573398259368</v>
+        <v>0.00101406291196857</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000263417775082996</v>
+        <v>0.000274652028037584</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004160604666873952</v>
+        <v>0.0006739735882354702</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003397391208851957</v>
+        <v>0.0004743128081365271</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002503747863169513</v>
+        <v>0.002569624438759452</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02113372170736205</v>
+        <v>0.02225948713383883</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00229667374366</v>
+        <v>1.002547872225474</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02203342799327939</v>
+        <v>0.02320711958461699</v>
       </c>
       <c r="P21" t="n">
-        <v>73.42754131622382</v>
+        <v>73.21994789283895</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.7749402374016</v>
+        <v>108.5673468140168</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9995128665983856</v>
+        <v>0.9994563061076238</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987296794690868</v>
+        <v>0.9989043367022329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990767330590539</v>
+        <v>0.9996024700433617</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994350523205568</v>
+        <v>0.9991990442514928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9993394408020507</v>
+        <v>0.999438086454268</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0004547176477220254</v>
+        <v>0.0005075143831294748</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001185788454980707</v>
+        <v>0.001022753594405308</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000265715222103153</v>
+        <v>0.0002828128358174949</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0004214692130140189</v>
+        <v>0.0006971276644749904</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000343592217558586</v>
+        <v>0.0004899702501462426</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002525833476718551</v>
+        <v>0.002601760781437671</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02132410954112798</v>
+        <v>0.0225280798811056</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002338240327749</v>
+        <v>1.002609730683406</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02223192103128589</v>
+        <v>0.02348714688119854</v>
       </c>
       <c r="P22" t="n">
-        <v>73.39166777218804</v>
+        <v>73.17197101261623</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.7390666933659</v>
+        <v>108.519369933794</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9995041626692945</v>
+        <v>0.9994430881768797</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987230509082095</v>
+        <v>0.9988946339553703</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9990698510752601</v>
+        <v>0.9995908037084175</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9994282115498239</v>
+        <v>0.9991714240607541</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9993326312135969</v>
+        <v>0.9994195424659355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000462842383470139</v>
+        <v>0.0005198527412790881</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001191975925599491</v>
+        <v>0.001031810682700219</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002676958495589581</v>
+        <v>0.0002911125606912234</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0004265726488934538</v>
+        <v>0.0007211674433239891</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003471342492262059</v>
+        <v>0.0005061400020076063</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002547752277843251</v>
+        <v>0.002634262405791472</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02151377194892005</v>
+        <v>0.022800279412303</v>
       </c>
       <c r="N23" t="n">
-        <v>1.002380019187386</v>
+        <v>1.002673176750978</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02242965776043297</v>
+        <v>0.02377093450996973</v>
       </c>
       <c r="P23" t="n">
-        <v>73.35624797261229</v>
+        <v>73.12392995268505</v>
       </c>
       <c r="Q23" t="n">
-        <v>108.7036468937901</v>
+        <v>108.4713288738629</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994952370602872</v>
+        <v>0.9994295184016582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987162090236625</v>
+        <v>0.9988845038427724</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990625224998489</v>
+        <v>0.9995789361955594</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994211076582632</v>
+        <v>0.9991426592485181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993255093854103</v>
+        <v>0.9994003451463644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0004711740476895307</v>
+        <v>0.0005325195308040906</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001198362524499956</v>
+        <v>0.001041266698149697</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002698050055968602</v>
+        <v>0.0002995554086060695</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0004318723814073058</v>
+        <v>0.000746203466113727</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000350838693502083</v>
+        <v>0.0005228794373598982</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002570020659341807</v>
+        <v>0.002667173848158825</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02170654389094521</v>
+        <v>0.02307638469960342</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002422862110621</v>
+        <v>1.002738311672041</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02263063640312308</v>
+        <v>0.02405879417096726</v>
       </c>
       <c r="P24" t="n">
-        <v>73.32056600840653</v>
+        <v>73.07578196697386</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.6679649295843</v>
+        <v>108.4231808881517</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994861157136716</v>
+        <v>0.9994156030361878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9987091831102183</v>
+        <v>0.9988739909632114</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990547254139107</v>
+        <v>0.9995668896052753</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994137666444853</v>
+        <v>0.9991128424464032</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9993180878979723</v>
+        <v>0.9993805497422378</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004796884243743987</v>
+        <v>0.0005455089136566654</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001204920906298293</v>
+        <v>0.001051080009757844</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002720489984552076</v>
+        <v>0.0003081256567177083</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0004373490147527862</v>
+        <v>0.0007721551090842972</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003546990066039968</v>
+        <v>0.0005401403829010028</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002592601476093837</v>
+        <v>0.002700462961622671</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02190179043764228</v>
+        <v>0.02335613224951138</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002466644574376</v>
+        <v>1.002805105426299</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02283419499952911</v>
+        <v>0.02435045115323206</v>
       </c>
       <c r="P25" t="n">
-        <v>73.28474756143187</v>
+        <v>73.02758282496492</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.6321464826097</v>
+        <v>108.3749817461427</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994767690252093</v>
+        <v>0.9994013543556808</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987019294312529</v>
+        <v>0.9988631085529457</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9990463892504904</v>
+        <v>0.9995546332987656</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994060670595101</v>
+        <v>0.999082038755033</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9993102601347343</v>
+        <v>0.9993601762453596</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0004884131477817557</v>
+        <v>0.0005588094314651786</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001211691897212765</v>
+        <v>0.001061238262058321</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002744481372269677</v>
+        <v>0.0003168451022406351</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004430931537910616</v>
+        <v>0.0007989657106214332</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003587706455090146</v>
+        <v>0.000557905406431034</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002615551450819566</v>
+        <v>0.002734095829972757</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02210007121666706</v>
+        <v>0.023639150396433</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002511508678995</v>
+        <v>1.002873499092732</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02304091700181477</v>
+        <v>0.02464551796859647</v>
       </c>
       <c r="P26" t="n">
-        <v>73.24869779196</v>
+        <v>72.97940410530902</v>
       </c>
       <c r="Q26" t="n">
-        <v>108.5960967131378</v>
+        <v>108.3268030264868</v>
       </c>
     </row>
   </sheetData>
